--- a/include/names.xlsx
+++ b/include/names.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="320">
   <si>
     <t>Table 1</t>
   </si>
@@ -390,6 +390,588 @@
   </si>
   <si>
     <t>Scrooge McDuck</t>
+  </si>
+  <si>
+    <t>the cast of CHIP N’ DALE: RESCUE RANGERS</t>
+  </si>
+  <si>
+    <t>Batman (Adam West)</t>
+  </si>
+  <si>
+    <t>Batman (George Clooney)</t>
+  </si>
+  <si>
+    <t>Arliss Michaels from ARLI$$</t>
+  </si>
+  <si>
+    <t>the Planeteers from CAPTAIN PLANET</t>
+  </si>
+  <si>
+    <t>Mr. Peanut</t>
+  </si>
+  <si>
+    <t>Rich Uncle Pennybags from MONOPOLY</t>
+  </si>
+  <si>
+    <t>the Starbucks logo</t>
+  </si>
+  <si>
+    <t>Queequeg from MOBY DICK</t>
+  </si>
+  <si>
+    <t>President Jed Bartlett from THE WEST WING</t>
+  </si>
+  <si>
+    <t>Jack Bauer from 24</t>
+  </si>
+  <si>
+    <t>the Phantom of the Opera</t>
+  </si>
+  <si>
+    <t>William Shakespeare</t>
+  </si>
+  <si>
+    <t>Snorks</t>
+  </si>
+  <si>
+    <t>Miss Frizzle</t>
+  </si>
+  <si>
+    <t>the Beets from DOUG</t>
+  </si>
+  <si>
+    <t>Reptar from RUGRATS</t>
+  </si>
+  <si>
+    <t>Citizen Kane</t>
+  </si>
+  <si>
+    <t>the Warner siblings from ANIMANIACS</t>
+  </si>
+  <si>
+    <t>Roberto Benigni</t>
+  </si>
+  <si>
+    <t>Deborah from EVERYBODY LOVES RAYMOND</t>
+  </si>
+  <si>
+    <t>Malcolm from MALCOLM IN THE MIDDLE</t>
+  </si>
+  <si>
+    <t>Dewey from MALCOLM IN THE MIDDLE</t>
+  </si>
+  <si>
+    <t>Fraiser Crane from CHEERS</t>
+  </si>
+  <si>
+    <t>Niles Crane from FRAISER</t>
+  </si>
+  <si>
+    <t>Sam Malone from CHEERS</t>
+  </si>
+  <si>
+    <t>Leslie Know from PARKS AND RECREATION</t>
+  </si>
+  <si>
+    <t>Pluto Nash from PLUTO NASH</t>
+  </si>
+  <si>
+    <t>Harper Lee</t>
+  </si>
+  <si>
+    <t>Francisco Franco</t>
+  </si>
+  <si>
+    <t>Josef Stalin</t>
+  </si>
+  <si>
+    <t>Leo Tolstoy</t>
+  </si>
+  <si>
+    <t>Vladimir Lenin</t>
+  </si>
+  <si>
+    <t>Vladimir Nabokov</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>Moses</t>
+  </si>
+  <si>
+    <t>the Hamburglar</t>
+  </si>
+  <si>
+    <t>Mayor McCheese</t>
+  </si>
+  <si>
+    <t>Harry Lime from THE THIRD MAN</t>
+  </si>
+  <si>
+    <t>Uncle O’Grimacey from McDonald’s</t>
+  </si>
+  <si>
+    <t>the snowman that turns into a kid in the Campbell’s Soup commercial</t>
+  </si>
+  <si>
+    <t>Alex Kidd</t>
+  </si>
+  <si>
+    <t>Clarissa from CLARISSA EXPLAINS IT ALL</t>
+  </si>
+  <si>
+    <t>the Midnight Society from ARE YOU AFRAID OF THE DARK</t>
+  </si>
+  <si>
+    <t>the cast of YOU CAN’T DO THAT ON TELEVISION</t>
+  </si>
+  <si>
+    <t>the Jackalope from AMERICA’S FUNNIEST PEOPLE</t>
+  </si>
+  <si>
+    <t>Chappie from CHAPPIE</t>
+  </si>
+  <si>
+    <t>Dave Kovic from DAVE</t>
+  </si>
+  <si>
+    <t>ZZ Top</t>
+  </si>
+  <si>
+    <t>Mahatma Gandhi</t>
+  </si>
+  <si>
+    <t>Walt Disney</t>
+  </si>
+  <si>
+    <t>celebrity</t>
+  </si>
+  <si>
+    <t>Teddy Roosevelt</t>
+  </si>
+  <si>
+    <t>Boss Baby from BOSS BABY</t>
+  </si>
+  <si>
+    <t>Thomas Edison</t>
+  </si>
+  <si>
+    <t>Dumbo</t>
+  </si>
+  <si>
+    <t>Snow White</t>
+  </si>
+  <si>
+    <t>Beast from BEAUTY AND THE BEAST (animated)</t>
+  </si>
+  <si>
+    <t>Beast from BEAUTY AND THE BEAST (live-action)</t>
+  </si>
+  <si>
+    <t>Jesse James</t>
+  </si>
+  <si>
+    <t>historical figure</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>Neil Armstrong</t>
+  </si>
+  <si>
+    <t>the Carpenters</t>
+  </si>
+  <si>
+    <t>the Ramones</t>
+  </si>
+  <si>
+    <t>the Crows from DUMBO</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>the baby from LOOK WHO’S TALKING</t>
+  </si>
+  <si>
+    <t>the babies from LOOK WHO’S TALKING TOO</t>
+  </si>
+  <si>
+    <t>Fievel from AN AMERICAN TALE</t>
+  </si>
+  <si>
+    <t>E.T.</t>
+  </si>
+  <si>
+    <t>Jaws from JAWS</t>
+  </si>
+  <si>
+    <t>the Monstars from SPACE JAM</t>
+  </si>
+  <si>
+    <t>the Mighty Ducks from THE MIGHTY DUCKS</t>
+  </si>
+  <si>
+    <t>Inspector Gadget</t>
+  </si>
+  <si>
+    <t>T-800 from THE TERMINATOR</t>
+  </si>
+  <si>
+    <t>T-1000 from TERMINATOR 2: JUDGEMENT DAY</t>
+  </si>
+  <si>
+    <t>Spiro Agnew</t>
+  </si>
+  <si>
+    <t>John Ashcroft</t>
+  </si>
+  <si>
+    <t>the Jumpman logo</t>
+  </si>
+  <si>
+    <t>the Carl’s Jr. mascot</t>
+  </si>
+  <si>
+    <t>the Tyrannosaurus Rex from JURASSIC PARK</t>
+  </si>
+  <si>
+    <t>Pretty Woman</t>
+  </si>
+  <si>
+    <t>Erin Brockovich from ERIN BROCKOVICH</t>
+  </si>
+  <si>
+    <t>James Bond (Roger Moore)</t>
+  </si>
+  <si>
+    <t>ABBA</t>
+  </si>
+  <si>
+    <t>Nash Bridges from NASH BRIDGES</t>
+  </si>
+  <si>
+    <t>the Commish from THE COMMISH</t>
+  </si>
+  <si>
+    <t>Angela from WHO’S THE BOSS</t>
+  </si>
+  <si>
+    <t>Jordan Catalano from MY SO-CALLED LIFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jay Gatsby from THE GREAT GATSBY </t>
+  </si>
+  <si>
+    <t>George and Lennie from OF MICE AND MEN</t>
+  </si>
+  <si>
+    <t>the cast of 1776</t>
+  </si>
+  <si>
+    <t>Christ the Redeemer (statue)</t>
+  </si>
+  <si>
+    <t>monument</t>
+  </si>
+  <si>
+    <t>Mount Rushmore</t>
+  </si>
+  <si>
+    <t>Crazy Horse</t>
+  </si>
+  <si>
+    <t>the 1985 Chicago Bears</t>
+  </si>
+  <si>
+    <t>the Rugrats from RUGRATS</t>
+  </si>
+  <si>
+    <t>Aladdin</t>
+  </si>
+  <si>
+    <t>Optimus Prime</t>
+  </si>
+  <si>
+    <t>He-Man</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>the cast of BIKER MICE FROM MARS</t>
+  </si>
+  <si>
+    <t>the Pep Boys mascots</t>
+  </si>
+  <si>
+    <t>the cast of GAME OF THRONES</t>
+  </si>
+  <si>
+    <t>the old man from the Six Flags commercials</t>
+  </si>
+  <si>
+    <t>the Charmin bears</t>
+  </si>
+  <si>
+    <t>Pikachu from POKEMON</t>
+  </si>
+  <si>
+    <t>Antonin Scalia</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>Elmo</t>
+  </si>
+  <si>
+    <t>Tony Soprano from THE SOPRANOS</t>
+  </si>
+  <si>
+    <t>Dr. Melfi from THE SOPRANOS</t>
+  </si>
+  <si>
+    <t>the cast of ER</t>
+  </si>
+  <si>
+    <t>Mister Rogers from MISTER ROGERS’ NEIGHBORHOOD</t>
+  </si>
+  <si>
+    <t>the Cabbage Patch Kids</t>
+  </si>
+  <si>
+    <t>Alf</t>
+  </si>
+  <si>
+    <t>the Captain and Tennille</t>
+  </si>
+  <si>
+    <t>Bulma from DRAGON BALL</t>
+  </si>
+  <si>
+    <t>Fred Flintstone</t>
+  </si>
+  <si>
+    <t>George Jetson from THE JETSONS</t>
+  </si>
+  <si>
+    <t>Garfield</t>
+  </si>
+  <si>
+    <t>Minnie Mouse</t>
+  </si>
+  <si>
+    <t>the Grinch from HOW THE GRINCH STOLE CHRISTMAS</t>
+  </si>
+  <si>
+    <t>the California Raisins</t>
+  </si>
+  <si>
+    <t>the Jolly Green Giant</t>
+  </si>
+  <si>
+    <t>Bob from REBOOT</t>
+  </si>
+  <si>
+    <t>Megatron from TRANSFORMERS</t>
+  </si>
+  <si>
+    <t>the Yellow Ranger</t>
+  </si>
+  <si>
+    <t>Wonder Woman</t>
+  </si>
+  <si>
+    <t>the Joker</t>
+  </si>
+  <si>
+    <t>Will Hunting from GOOD WILL HUNTING</t>
+  </si>
+  <si>
+    <t>Benjamin Button from THE CURIOUS CASE OF BENJAMIN BUTTON</t>
+  </si>
+  <si>
+    <t>Nell from NELL</t>
+  </si>
+  <si>
+    <t>the Incredible Hulk</t>
+  </si>
+  <si>
+    <t>Tim Russert</t>
+  </si>
+  <si>
+    <t>newscaster</t>
+  </si>
+  <si>
+    <t>James Joyce</t>
+  </si>
+  <si>
+    <t>the Clash</t>
+  </si>
+  <si>
+    <t>General George S. Patton</t>
+  </si>
+  <si>
+    <t>Paul Walker</t>
+  </si>
+  <si>
+    <t>Dom Toretto from the FAST AND THE FURIOUS franchise</t>
+  </si>
+  <si>
+    <t>Harry S. Truman</t>
+  </si>
+  <si>
+    <t>Milhouse Van Houten from THE SIMPSONS</t>
+  </si>
+  <si>
+    <t>John Wick from JOHN WICK</t>
+  </si>
+  <si>
+    <t>Cinderella</t>
+  </si>
+  <si>
+    <t>Elsa from FROZEN</t>
+  </si>
+  <si>
+    <t>Lightning McQueen from CARS</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Hello Kitty</t>
+  </si>
+  <si>
+    <t>Arthur from ARTHUR</t>
+  </si>
+  <si>
+    <t>Chris Gaines</t>
+  </si>
+  <si>
+    <t>Nirvana</t>
+  </si>
+  <si>
+    <t>Xena from XENA: WARRIOR PRINCESS</t>
+  </si>
+  <si>
+    <t>Michael Scott from THE OFFICE</t>
+  </si>
+  <si>
+    <t>Bennifer (Supercouple)</t>
+  </si>
+  <si>
+    <t>Kelly Kapowski from SAVED BY THE BELL</t>
+  </si>
+  <si>
+    <t>Screech</t>
+  </si>
+  <si>
+    <t>Toucan Sam</t>
+  </si>
+  <si>
+    <t>Donkey Kong</t>
+  </si>
+  <si>
+    <t>Ross from FRIENDS</t>
+  </si>
+  <si>
+    <t>Anna Nicole Smith</t>
+  </si>
+  <si>
+    <t>Kevin Costner in THE BODYGUARD</t>
+  </si>
+  <si>
+    <t>Miss Daisy from DRIVING MISS DAISY</t>
+  </si>
+  <si>
+    <t>John Lennon</t>
+  </si>
+  <si>
+    <t>Ganesha</t>
+  </si>
+  <si>
+    <t>diety</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Daniel Tiger</t>
+  </si>
+  <si>
+    <t>John Wilkes Booth</t>
+  </si>
+  <si>
+    <t>the Zodiac Killer</t>
+  </si>
+  <si>
+    <t>Lee Harvey Oswald</t>
+  </si>
+  <si>
+    <t>Marilyn Monroe</t>
+  </si>
+  <si>
+    <t>Anubis</t>
+  </si>
+  <si>
+    <t>Zeus</t>
+  </si>
+  <si>
+    <t>Shiva</t>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>Arnold Palmer</t>
+  </si>
+  <si>
+    <t>Jimi Hendrix</t>
+  </si>
+  <si>
+    <t>Albert Einstein</t>
+  </si>
+  <si>
+    <t>Tony Montana from SCARFACE</t>
+  </si>
+  <si>
+    <t>the cast of THE UNTOUCHABLES</t>
+  </si>
+  <si>
+    <t>My Buddy (doll)</t>
+  </si>
+  <si>
+    <t>Hungry Hungry Hippos</t>
+  </si>
+  <si>
+    <t>Papa Smurf from SMURFS</t>
+  </si>
+  <si>
+    <t>the baby from FAMILY GUY</t>
+  </si>
+  <si>
+    <t>a Cylon from BATTLESTAR GALACTICA</t>
+  </si>
+  <si>
+    <t>Grimlock from TRANSFORMERS</t>
+  </si>
+  <si>
+    <t>Hunter S. Thompson</t>
+  </si>
+  <si>
+    <t>Edvard Munch’s “The Scream”</t>
+  </si>
+  <si>
+    <t>painting</t>
+  </si>
+  <si>
+    <t>Spock from STAR TREK</t>
   </si>
 </sst>
 </file>
@@ -1622,7 +2204,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B114"/>
+  <dimension ref="A2:B302"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -2545,6 +3127,1510 @@
         <v>6</v>
       </c>
     </row>
+    <row r="115" ht="44.35" customHeight="1">
+      <c r="A115" t="s" s="5">
+        <v>126</v>
+      </c>
+      <c r="B115" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" ht="32.35" customHeight="1">
+      <c r="A116" t="s" s="5">
+        <v>127</v>
+      </c>
+      <c r="B116" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" ht="32.35" customHeight="1">
+      <c r="A117" t="s" s="5">
+        <v>128</v>
+      </c>
+      <c r="B117" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" ht="32.35" customHeight="1">
+      <c r="A118" t="s" s="5">
+        <v>129</v>
+      </c>
+      <c r="B118" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" ht="32.35" customHeight="1">
+      <c r="A119" t="s" s="5">
+        <v>130</v>
+      </c>
+      <c r="B119" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" ht="20.35" customHeight="1">
+      <c r="A120" t="s" s="5">
+        <v>131</v>
+      </c>
+      <c r="B120" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" ht="44.35" customHeight="1">
+      <c r="A121" t="s" s="5">
+        <v>132</v>
+      </c>
+      <c r="B121" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" ht="20.35" customHeight="1">
+      <c r="A122" t="s" s="5">
+        <v>133</v>
+      </c>
+      <c r="B122" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" ht="32.35" customHeight="1">
+      <c r="A123" t="s" s="5">
+        <v>134</v>
+      </c>
+      <c r="B123" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" ht="44.35" customHeight="1">
+      <c r="A124" t="s" s="5">
+        <v>135</v>
+      </c>
+      <c r="B124" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" ht="20.35" customHeight="1">
+      <c r="A125" t="s" s="5">
+        <v>136</v>
+      </c>
+      <c r="B125" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" ht="32.35" customHeight="1">
+      <c r="A126" t="s" s="5">
+        <v>137</v>
+      </c>
+      <c r="B126" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" ht="32.35" customHeight="1">
+      <c r="A127" t="s" s="5">
+        <v>138</v>
+      </c>
+      <c r="B127" t="s" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" ht="20.35" customHeight="1">
+      <c r="A128" t="s" s="5">
+        <v>139</v>
+      </c>
+      <c r="B128" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" ht="20.35" customHeight="1">
+      <c r="A129" t="s" s="5">
+        <v>140</v>
+      </c>
+      <c r="B129" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" ht="32.35" customHeight="1">
+      <c r="A130" t="s" s="5">
+        <v>141</v>
+      </c>
+      <c r="B130" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" ht="32.35" customHeight="1">
+      <c r="A131" t="s" s="5">
+        <v>142</v>
+      </c>
+      <c r="B131" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" ht="20.35" customHeight="1">
+      <c r="A132" t="s" s="5">
+        <v>143</v>
+      </c>
+      <c r="B132" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" ht="32.35" customHeight="1">
+      <c r="A133" t="s" s="5">
+        <v>144</v>
+      </c>
+      <c r="B133" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" ht="20.35" customHeight="1">
+      <c r="A134" t="s" s="5">
+        <v>145</v>
+      </c>
+      <c r="B134" t="s" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="135" ht="44.35" customHeight="1">
+      <c r="A135" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="B135" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" ht="44.35" customHeight="1">
+      <c r="A136" t="s" s="5">
+        <v>147</v>
+      </c>
+      <c r="B136" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" ht="44.35" customHeight="1">
+      <c r="A137" t="s" s="5">
+        <v>148</v>
+      </c>
+      <c r="B137" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" ht="32.35" customHeight="1">
+      <c r="A138" t="s" s="5">
+        <v>149</v>
+      </c>
+      <c r="B138" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" ht="32.35" customHeight="1">
+      <c r="A139" t="s" s="5">
+        <v>150</v>
+      </c>
+      <c r="B139" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" ht="32.35" customHeight="1">
+      <c r="A140" t="s" s="5">
+        <v>151</v>
+      </c>
+      <c r="B140" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" ht="44.35" customHeight="1">
+      <c r="A141" t="s" s="5">
+        <v>152</v>
+      </c>
+      <c r="B141" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" ht="32.35" customHeight="1">
+      <c r="A142" t="s" s="5">
+        <v>153</v>
+      </c>
+      <c r="B142" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" ht="20.35" customHeight="1">
+      <c r="A143" t="s" s="5">
+        <v>154</v>
+      </c>
+      <c r="B143" t="s" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" ht="20.35" customHeight="1">
+      <c r="A144" t="s" s="5">
+        <v>155</v>
+      </c>
+      <c r="B144" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" ht="20.35" customHeight="1">
+      <c r="A145" t="s" s="5">
+        <v>156</v>
+      </c>
+      <c r="B145" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" ht="20.35" customHeight="1">
+      <c r="A146" t="s" s="5">
+        <v>157</v>
+      </c>
+      <c r="B146" t="s" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" ht="20.35" customHeight="1">
+      <c r="A147" t="s" s="5">
+        <v>158</v>
+      </c>
+      <c r="B147" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" ht="20.35" customHeight="1">
+      <c r="A148" t="s" s="5">
+        <v>159</v>
+      </c>
+      <c r="B148" t="s" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" ht="20.35" customHeight="1">
+      <c r="A149" t="s" s="5">
+        <v>160</v>
+      </c>
+      <c r="B149" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" ht="20.35" customHeight="1">
+      <c r="A150" t="s" s="5">
+        <v>161</v>
+      </c>
+      <c r="B150" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" ht="20.35" customHeight="1">
+      <c r="A151" t="s" s="5">
+        <v>162</v>
+      </c>
+      <c r="B151" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" ht="20.35" customHeight="1">
+      <c r="A152" t="s" s="5">
+        <v>163</v>
+      </c>
+      <c r="B152" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" ht="32.35" customHeight="1">
+      <c r="A153" t="s" s="5">
+        <v>164</v>
+      </c>
+      <c r="B153" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" ht="32.35" customHeight="1">
+      <c r="A154" t="s" s="5">
+        <v>165</v>
+      </c>
+      <c r="B154" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" ht="56.35" customHeight="1">
+      <c r="A155" t="s" s="5">
+        <v>166</v>
+      </c>
+      <c r="B155" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" ht="20.35" customHeight="1">
+      <c r="A156" t="s" s="5">
+        <v>167</v>
+      </c>
+      <c r="B156" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" ht="44.35" customHeight="1">
+      <c r="A157" t="s" s="5">
+        <v>168</v>
+      </c>
+      <c r="B157" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" ht="56.35" customHeight="1">
+      <c r="A158" t="s" s="5">
+        <v>169</v>
+      </c>
+      <c r="B158" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" ht="44.35" customHeight="1">
+      <c r="A159" t="s" s="5">
+        <v>170</v>
+      </c>
+      <c r="B159" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" ht="56.35" customHeight="1">
+      <c r="A160" t="s" s="5">
+        <v>171</v>
+      </c>
+      <c r="B160" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" ht="32.35" customHeight="1">
+      <c r="A161" t="s" s="5">
+        <v>172</v>
+      </c>
+      <c r="B161" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" ht="32.35" customHeight="1">
+      <c r="A162" t="s" s="5">
+        <v>173</v>
+      </c>
+      <c r="B162" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" ht="20.35" customHeight="1">
+      <c r="A163" t="s" s="5">
+        <v>174</v>
+      </c>
+      <c r="B163" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" ht="20.35" customHeight="1">
+      <c r="A164" t="s" s="5">
+        <v>175</v>
+      </c>
+      <c r="B164" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" ht="20.35" customHeight="1">
+      <c r="A165" t="s" s="5">
+        <v>176</v>
+      </c>
+      <c r="B165" t="s" s="5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="166" ht="20.35" customHeight="1">
+      <c r="A166" t="s" s="5">
+        <v>178</v>
+      </c>
+      <c r="B166" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" ht="32.35" customHeight="1">
+      <c r="A167" t="s" s="5">
+        <v>179</v>
+      </c>
+      <c r="B167" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" ht="20.35" customHeight="1">
+      <c r="A168" t="s" s="5">
+        <v>180</v>
+      </c>
+      <c r="B168" t="s" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="169" ht="20.35" customHeight="1">
+      <c r="A169" t="s" s="5">
+        <v>181</v>
+      </c>
+      <c r="B169" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" ht="20.35" customHeight="1">
+      <c r="A170" t="s" s="5">
+        <v>182</v>
+      </c>
+      <c r="B170" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" ht="44.35" customHeight="1">
+      <c r="A171" t="s" s="5">
+        <v>183</v>
+      </c>
+      <c r="B171" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" ht="44.35" customHeight="1">
+      <c r="A172" t="s" s="5">
+        <v>184</v>
+      </c>
+      <c r="B172" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" ht="20.35" customHeight="1">
+      <c r="A173" t="s" s="5">
+        <v>185</v>
+      </c>
+      <c r="B173" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="174" ht="20.35" customHeight="1">
+      <c r="A174" t="s" s="5">
+        <v>187</v>
+      </c>
+      <c r="B174" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" ht="20.35" customHeight="1">
+      <c r="A175" t="s" s="5">
+        <v>188</v>
+      </c>
+      <c r="B175" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="176" ht="20.35" customHeight="1">
+      <c r="A176" t="s" s="5">
+        <v>189</v>
+      </c>
+      <c r="B176" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" ht="20.35" customHeight="1">
+      <c r="A177" t="s" s="5">
+        <v>190</v>
+      </c>
+      <c r="B177" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" ht="32.35" customHeight="1">
+      <c r="A178" t="s" s="5">
+        <v>191</v>
+      </c>
+      <c r="B178" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" ht="20.35" customHeight="1">
+      <c r="A179" t="s" s="5">
+        <v>192</v>
+      </c>
+      <c r="B179" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" ht="44.35" customHeight="1">
+      <c r="A180" t="s" s="5">
+        <v>193</v>
+      </c>
+      <c r="B180" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" ht="44.35" customHeight="1">
+      <c r="A181" t="s" s="5">
+        <v>194</v>
+      </c>
+      <c r="B181" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" ht="32.35" customHeight="1">
+      <c r="A182" t="s" s="5">
+        <v>195</v>
+      </c>
+      <c r="B182" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" ht="20.35" customHeight="1">
+      <c r="A183" t="s" s="5">
+        <v>196</v>
+      </c>
+      <c r="B183" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" ht="20.35" customHeight="1">
+      <c r="A184" t="s" s="5">
+        <v>197</v>
+      </c>
+      <c r="B184" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" ht="32.35" customHeight="1">
+      <c r="A185" t="s" s="5">
+        <v>198</v>
+      </c>
+      <c r="B185" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" ht="44.35" customHeight="1">
+      <c r="A186" t="s" s="5">
+        <v>199</v>
+      </c>
+      <c r="B186" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" ht="20.35" customHeight="1">
+      <c r="A187" t="s" s="5">
+        <v>200</v>
+      </c>
+      <c r="B187" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" ht="32.35" customHeight="1">
+      <c r="A188" t="s" s="5">
+        <v>201</v>
+      </c>
+      <c r="B188" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" ht="44.35" customHeight="1">
+      <c r="A189" t="s" s="5">
+        <v>202</v>
+      </c>
+      <c r="B189" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" ht="20.35" customHeight="1">
+      <c r="A190" t="s" s="5">
+        <v>203</v>
+      </c>
+      <c r="B190" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" ht="20.35" customHeight="1">
+      <c r="A191" t="s" s="5">
+        <v>204</v>
+      </c>
+      <c r="B191" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" ht="20.35" customHeight="1">
+      <c r="A192" t="s" s="5">
+        <v>205</v>
+      </c>
+      <c r="B192" t="s" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="193" ht="32.35" customHeight="1">
+      <c r="A193" t="s" s="5">
+        <v>206</v>
+      </c>
+      <c r="B193" t="s" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="194" ht="44.35" customHeight="1">
+      <c r="A194" t="s" s="5">
+        <v>207</v>
+      </c>
+      <c r="B194" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" ht="20.35" customHeight="1">
+      <c r="A195" t="s" s="5">
+        <v>208</v>
+      </c>
+      <c r="B195" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" ht="44.35" customHeight="1">
+      <c r="A196" t="s" s="5">
+        <v>209</v>
+      </c>
+      <c r="B196" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" ht="32.35" customHeight="1">
+      <c r="A197" t="s" s="5">
+        <v>210</v>
+      </c>
+      <c r="B197" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" ht="20.35" customHeight="1">
+      <c r="A198" t="s" s="5">
+        <v>211</v>
+      </c>
+      <c r="B198" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" ht="32.35" customHeight="1">
+      <c r="A199" t="s" s="5">
+        <v>212</v>
+      </c>
+      <c r="B199" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" ht="32.35" customHeight="1">
+      <c r="A200" t="s" s="5">
+        <v>213</v>
+      </c>
+      <c r="B200" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" ht="32.35" customHeight="1">
+      <c r="A201" t="s" s="5">
+        <v>214</v>
+      </c>
+      <c r="B201" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" ht="44.35" customHeight="1">
+      <c r="A202" t="s" s="5">
+        <v>215</v>
+      </c>
+      <c r="B202" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" ht="44.35" customHeight="1">
+      <c r="A203" t="s" s="5">
+        <v>216</v>
+      </c>
+      <c r="B203" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" ht="44.35" customHeight="1">
+      <c r="A204" t="s" s="5">
+        <v>217</v>
+      </c>
+      <c r="B204" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" ht="20.35" customHeight="1">
+      <c r="A205" t="s" s="5">
+        <v>218</v>
+      </c>
+      <c r="B205" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" ht="32.35" customHeight="1">
+      <c r="A206" t="s" s="5">
+        <v>219</v>
+      </c>
+      <c r="B206" t="s" s="5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="207" ht="20.35" customHeight="1">
+      <c r="A207" t="s" s="5">
+        <v>221</v>
+      </c>
+      <c r="B207" t="s" s="5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="208" ht="20.35" customHeight="1">
+      <c r="A208" t="s" s="5">
+        <v>222</v>
+      </c>
+      <c r="B208" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="209" ht="32.35" customHeight="1">
+      <c r="A209" t="s" s="5">
+        <v>223</v>
+      </c>
+      <c r="B209" t="s" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" ht="32.35" customHeight="1">
+      <c r="A210" t="s" s="5">
+        <v>224</v>
+      </c>
+      <c r="B210" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" ht="20.35" customHeight="1">
+      <c r="A211" t="s" s="5">
+        <v>225</v>
+      </c>
+      <c r="B211" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" ht="20.35" customHeight="1">
+      <c r="A212" t="s" s="5">
+        <v>226</v>
+      </c>
+      <c r="B212" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" ht="20.35" customHeight="1">
+      <c r="A213" t="s" s="5">
+        <v>227</v>
+      </c>
+      <c r="B213" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" ht="20.35" customHeight="1">
+      <c r="A214" t="s" s="5">
+        <v>228</v>
+      </c>
+      <c r="B214" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" ht="32.35" customHeight="1">
+      <c r="A215" t="s" s="5">
+        <v>229</v>
+      </c>
+      <c r="B215" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" ht="32.35" customHeight="1">
+      <c r="A216" t="s" s="5">
+        <v>230</v>
+      </c>
+      <c r="B216" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" ht="32.35" customHeight="1">
+      <c r="A217" t="s" s="5">
+        <v>231</v>
+      </c>
+      <c r="B217" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" ht="44.35" customHeight="1">
+      <c r="A218" t="s" s="5">
+        <v>232</v>
+      </c>
+      <c r="B218" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" ht="20.35" customHeight="1">
+      <c r="A219" t="s" s="5">
+        <v>233</v>
+      </c>
+      <c r="B219" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" ht="32.35" customHeight="1">
+      <c r="A220" t="s" s="5">
+        <v>234</v>
+      </c>
+      <c r="B220" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" ht="20.35" customHeight="1">
+      <c r="A221" t="s" s="5">
+        <v>235</v>
+      </c>
+      <c r="B221" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" ht="20.35" customHeight="1">
+      <c r="A222" t="s" s="5">
+        <v>236</v>
+      </c>
+      <c r="B222" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" ht="20.35" customHeight="1">
+      <c r="A223" t="s" s="5">
+        <v>237</v>
+      </c>
+      <c r="B223" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" ht="20.35" customHeight="1">
+      <c r="A224" t="s" s="5">
+        <v>238</v>
+      </c>
+      <c r="B224" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" ht="32.35" customHeight="1">
+      <c r="A225" t="s" s="5">
+        <v>239</v>
+      </c>
+      <c r="B225" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" ht="32.35" customHeight="1">
+      <c r="A226" t="s" s="5">
+        <v>240</v>
+      </c>
+      <c r="B226" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" ht="20.35" customHeight="1">
+      <c r="A227" t="s" s="5">
+        <v>241</v>
+      </c>
+      <c r="B227" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" ht="44.35" customHeight="1">
+      <c r="A228" t="s" s="5">
+        <v>242</v>
+      </c>
+      <c r="B228" t="s" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="229" ht="32.35" customHeight="1">
+      <c r="A229" t="s" s="5">
+        <v>243</v>
+      </c>
+      <c r="B229" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" ht="20.35" customHeight="1">
+      <c r="A230" t="s" s="5">
+        <v>244</v>
+      </c>
+      <c r="B230" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" ht="32.35" customHeight="1">
+      <c r="A231" t="s" s="5">
+        <v>245</v>
+      </c>
+      <c r="B231" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" ht="32.35" customHeight="1">
+      <c r="A232" t="s" s="5">
+        <v>246</v>
+      </c>
+      <c r="B232" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" ht="20.35" customHeight="1">
+      <c r="A233" t="s" s="5">
+        <v>247</v>
+      </c>
+      <c r="B233" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" ht="32.35" customHeight="1">
+      <c r="A234" t="s" s="5">
+        <v>248</v>
+      </c>
+      <c r="B234" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" ht="20.35" customHeight="1">
+      <c r="A235" t="s" s="5">
+        <v>249</v>
+      </c>
+      <c r="B235" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" ht="20.35" customHeight="1">
+      <c r="A236" t="s" s="5">
+        <v>250</v>
+      </c>
+      <c r="B236" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" ht="56.35" customHeight="1">
+      <c r="A237" t="s" s="5">
+        <v>251</v>
+      </c>
+      <c r="B237" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" ht="32.35" customHeight="1">
+      <c r="A238" t="s" s="5">
+        <v>252</v>
+      </c>
+      <c r="B238" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" ht="32.35" customHeight="1">
+      <c r="A239" t="s" s="5">
+        <v>253</v>
+      </c>
+      <c r="B239" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" ht="20.35" customHeight="1">
+      <c r="A240" t="s" s="5">
+        <v>254</v>
+      </c>
+      <c r="B240" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" ht="32.35" customHeight="1">
+      <c r="A241" t="s" s="5">
+        <v>255</v>
+      </c>
+      <c r="B241" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" ht="20.35" customHeight="1">
+      <c r="A242" t="s" s="5">
+        <v>256</v>
+      </c>
+      <c r="B242" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" ht="20.35" customHeight="1">
+      <c r="A243" t="s" s="5">
+        <v>257</v>
+      </c>
+      <c r="B243" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" ht="20.35" customHeight="1">
+      <c r="A244" t="s" s="5">
+        <v>258</v>
+      </c>
+      <c r="B244" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" ht="44.35" customHeight="1">
+      <c r="A245" t="s" s="5">
+        <v>259</v>
+      </c>
+      <c r="B245" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" ht="68.35" customHeight="1">
+      <c r="A246" t="s" s="5">
+        <v>260</v>
+      </c>
+      <c r="B246" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" ht="20.35" customHeight="1">
+      <c r="A247" t="s" s="5">
+        <v>261</v>
+      </c>
+      <c r="B247" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" ht="20.35" customHeight="1">
+      <c r="A248" t="s" s="5">
+        <v>262</v>
+      </c>
+      <c r="B248" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" ht="20.35" customHeight="1">
+      <c r="A249" t="s" s="5">
+        <v>263</v>
+      </c>
+      <c r="B249" t="s" s="5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="250" ht="20.35" customHeight="1">
+      <c r="A250" t="s" s="5">
+        <v>265</v>
+      </c>
+      <c r="B250" t="s" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="251" ht="20.35" customHeight="1">
+      <c r="A251" t="s" s="5">
+        <v>266</v>
+      </c>
+      <c r="B251" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" ht="32.35" customHeight="1">
+      <c r="A252" t="s" s="5">
+        <v>267</v>
+      </c>
+      <c r="B252" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="253" ht="20.35" customHeight="1">
+      <c r="A253" t="s" s="5">
+        <v>268</v>
+      </c>
+      <c r="B253" t="s" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="254" ht="44.35" customHeight="1">
+      <c r="A254" t="s" s="5">
+        <v>269</v>
+      </c>
+      <c r="B254" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" ht="20.35" customHeight="1">
+      <c r="A255" t="s" s="5">
+        <v>270</v>
+      </c>
+      <c r="B255" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" ht="44.35" customHeight="1">
+      <c r="A256" t="s" s="5">
+        <v>271</v>
+      </c>
+      <c r="B256" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" ht="32.35" customHeight="1">
+      <c r="A257" t="s" s="5">
+        <v>272</v>
+      </c>
+      <c r="B257" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" ht="20.35" customHeight="1">
+      <c r="A258" t="s" s="5">
+        <v>273</v>
+      </c>
+      <c r="B258" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" ht="20.35" customHeight="1">
+      <c r="A259" t="s" s="5">
+        <v>274</v>
+      </c>
+      <c r="B259" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" ht="32.35" customHeight="1">
+      <c r="A260" t="s" s="5">
+        <v>275</v>
+      </c>
+      <c r="B260" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" ht="20.35" customHeight="1">
+      <c r="A261" t="s" s="5">
+        <v>276</v>
+      </c>
+      <c r="B261" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" ht="20.35" customHeight="1">
+      <c r="A262" t="s" s="5">
+        <v>277</v>
+      </c>
+      <c r="B262" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" ht="32.35" customHeight="1">
+      <c r="A263" t="s" s="5">
+        <v>278</v>
+      </c>
+      <c r="B263" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" ht="20.35" customHeight="1">
+      <c r="A264" t="s" s="5">
+        <v>279</v>
+      </c>
+      <c r="B264" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" ht="20.35" customHeight="1">
+      <c r="A265" t="s" s="5">
+        <v>280</v>
+      </c>
+      <c r="B265" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" ht="44.35" customHeight="1">
+      <c r="A266" t="s" s="5">
+        <v>281</v>
+      </c>
+      <c r="B266" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" ht="32.35" customHeight="1">
+      <c r="A267" t="s" s="5">
+        <v>282</v>
+      </c>
+      <c r="B267" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" ht="32.35" customHeight="1">
+      <c r="A268" t="s" s="5">
+        <v>283</v>
+      </c>
+      <c r="B268" t="s" s="5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="269" ht="44.35" customHeight="1">
+      <c r="A269" t="s" s="5">
+        <v>284</v>
+      </c>
+      <c r="B269" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" ht="20.35" customHeight="1">
+      <c r="A270" t="s" s="5">
+        <v>285</v>
+      </c>
+      <c r="B270" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" ht="20.35" customHeight="1">
+      <c r="A271" t="s" s="5">
+        <v>286</v>
+      </c>
+      <c r="B271" t="s" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="272" ht="20.35" customHeight="1">
+      <c r="A272" t="s" s="5">
+        <v>287</v>
+      </c>
+      <c r="B272" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" ht="32.35" customHeight="1">
+      <c r="A273" t="s" s="5">
+        <v>288</v>
+      </c>
+      <c r="B273" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" ht="20.35" customHeight="1">
+      <c r="A274" t="s" s="5">
+        <v>289</v>
+      </c>
+      <c r="B274" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" ht="32.35" customHeight="1">
+      <c r="A275" t="s" s="5">
+        <v>290</v>
+      </c>
+      <c r="B275" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" ht="44.35" customHeight="1">
+      <c r="A276" t="s" s="5">
+        <v>291</v>
+      </c>
+      <c r="B276" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" ht="20.35" customHeight="1">
+      <c r="A277" t="s" s="5">
+        <v>292</v>
+      </c>
+      <c r="B277" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" ht="20.35" customHeight="1">
+      <c r="A278" t="s" s="5">
+        <v>293</v>
+      </c>
+      <c r="B278" t="s" s="5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="279" ht="20.35" customHeight="1">
+      <c r="A279" t="s" s="5">
+        <v>295</v>
+      </c>
+      <c r="B279" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" ht="20.35" customHeight="1">
+      <c r="A280" t="s" s="5">
+        <v>296</v>
+      </c>
+      <c r="B280" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" ht="20.35" customHeight="1">
+      <c r="A281" t="s" s="5">
+        <v>297</v>
+      </c>
+      <c r="B281" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="282" ht="20.35" customHeight="1">
+      <c r="A282" t="s" s="5">
+        <v>298</v>
+      </c>
+      <c r="B282" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="283" ht="20.35" customHeight="1">
+      <c r="A283" t="s" s="5">
+        <v>299</v>
+      </c>
+      <c r="B283" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="284" ht="20.35" customHeight="1">
+      <c r="A284" t="s" s="5">
+        <v>300</v>
+      </c>
+      <c r="B284" t="s" s="5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="285" ht="20.35" customHeight="1">
+      <c r="A285" t="s" s="5">
+        <v>301</v>
+      </c>
+      <c r="B285" t="s" s="5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="286" ht="20.35" customHeight="1">
+      <c r="A286" t="s" s="5">
+        <v>302</v>
+      </c>
+      <c r="B286" t="s" s="5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="287" ht="20.35" customHeight="1">
+      <c r="A287" t="s" s="5">
+        <v>303</v>
+      </c>
+      <c r="B287" t="s" s="5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="288" ht="20.35" customHeight="1">
+      <c r="A288" t="s" s="5">
+        <v>304</v>
+      </c>
+      <c r="B288" t="s" s="5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="289" ht="20.35" customHeight="1">
+      <c r="A289" t="s" s="5">
+        <v>305</v>
+      </c>
+      <c r="B289" t="s" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290" ht="20.35" customHeight="1">
+      <c r="A290" t="s" s="5">
+        <v>306</v>
+      </c>
+      <c r="B290" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291" ht="20.35" customHeight="1">
+      <c r="A291" t="s" s="5">
+        <v>307</v>
+      </c>
+      <c r="B291" t="s" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="292" ht="32.35" customHeight="1">
+      <c r="A292" t="s" s="5">
+        <v>308</v>
+      </c>
+      <c r="B292" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="293" ht="32.35" customHeight="1">
+      <c r="A293" t="s" s="5">
+        <v>309</v>
+      </c>
+      <c r="B293" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" ht="20.35" customHeight="1">
+      <c r="A294" t="s" s="5">
+        <v>310</v>
+      </c>
+      <c r="B294" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" ht="32.35" customHeight="1">
+      <c r="A295" t="s" s="5">
+        <v>311</v>
+      </c>
+      <c r="B295" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" ht="32.35" customHeight="1">
+      <c r="A296" t="s" s="5">
+        <v>312</v>
+      </c>
+      <c r="B296" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" ht="32.35" customHeight="1">
+      <c r="A297" t="s" s="5">
+        <v>313</v>
+      </c>
+      <c r="B297" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" ht="44.35" customHeight="1">
+      <c r="A298" t="s" s="5">
+        <v>314</v>
+      </c>
+      <c r="B298" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" ht="32.35" customHeight="1">
+      <c r="A299" t="s" s="5">
+        <v>315</v>
+      </c>
+      <c r="B299" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" ht="32.35" customHeight="1">
+      <c r="A300" t="s" s="5">
+        <v>316</v>
+      </c>
+      <c r="B300" t="s" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="301" ht="32.35" customHeight="1">
+      <c r="A301" t="s" s="5">
+        <v>317</v>
+      </c>
+      <c r="B301" t="s" s="5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="302" ht="32.35" customHeight="1">
+      <c r="A302" t="s" s="5">
+        <v>319</v>
+      </c>
+      <c r="B302" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/include/names.xlsx
+++ b/include/names.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
   <si>
     <t>Table 1</t>
   </si>
@@ -972,6 +972,81 @@
   </si>
   <si>
     <t>Spock from STAR TREK</t>
+  </si>
+  <si>
+    <t>the Mask from THE MASK</t>
+  </si>
+  <si>
+    <t>Crash Bandicoot</t>
+  </si>
+  <si>
+    <t>Charlie Chaplin</t>
+  </si>
+  <si>
+    <t>Uncle Sam</t>
+  </si>
+  <si>
+    <t>Rosie the Riveter</t>
+  </si>
+  <si>
+    <t>the Road Runner</t>
+  </si>
+  <si>
+    <t>HAL from 2001: A SPACE ODYSSEY</t>
+  </si>
+  <si>
+    <t>the Big Bopper</t>
+  </si>
+  <si>
+    <t>Big Bird</t>
+  </si>
+  <si>
+    <t>Bert and Ernie from SESEME STREET</t>
+  </si>
+  <si>
+    <t>the Genie from ALADDIN</t>
+  </si>
+  <si>
+    <t>the TEENAGE MUTANT NINA TURTLES (live action)</t>
+  </si>
+  <si>
+    <t>Bubby and Bobby from BUBBLE BOBBLE</t>
+  </si>
+  <si>
+    <t>Guatama Buddha</t>
+  </si>
+  <si>
+    <t>Psalty the Singing Psalm Book</t>
+  </si>
+  <si>
+    <t>Andy Kaufman</t>
+  </si>
+  <si>
+    <t>Air Bud from AIR BUD</t>
+  </si>
+  <si>
+    <t>Kevin McCallister from HOME ALONE</t>
+  </si>
+  <si>
+    <t>John Candy</t>
+  </si>
+  <si>
+    <t>the Ghostbusters (men)</t>
+  </si>
+  <si>
+    <t>the Ghostbusters (ladies)</t>
+  </si>
+  <si>
+    <t>the Ghostbusters logo</t>
+  </si>
+  <si>
+    <t>the Kool-Aid Man</t>
+  </si>
+  <si>
+    <t>Carmen Sandiego</t>
+  </si>
+  <si>
+    <t>Coach Taylor from FRIDAY NIGHT LIGHTS</t>
   </si>
 </sst>
 </file>
@@ -2204,7 +2279,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B302"/>
+  <dimension ref="A2:B327"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -4631,6 +4706,206 @@
         <v>6</v>
       </c>
     </row>
+    <row r="303" ht="32.35" customHeight="1">
+      <c r="A303" t="s" s="5">
+        <v>320</v>
+      </c>
+      <c r="B303" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" ht="20.35" customHeight="1">
+      <c r="A304" t="s" s="5">
+        <v>321</v>
+      </c>
+      <c r="B304" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" ht="20.35" customHeight="1">
+      <c r="A305" t="s" s="5">
+        <v>322</v>
+      </c>
+      <c r="B305" t="s" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="306" ht="20.35" customHeight="1">
+      <c r="A306" t="s" s="5">
+        <v>323</v>
+      </c>
+      <c r="B306" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" ht="20.35" customHeight="1">
+      <c r="A307" t="s" s="5">
+        <v>324</v>
+      </c>
+      <c r="B307" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" ht="20.35" customHeight="1">
+      <c r="A308" t="s" s="5">
+        <v>325</v>
+      </c>
+      <c r="B308" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" ht="32.35" customHeight="1">
+      <c r="A309" t="s" s="5">
+        <v>326</v>
+      </c>
+      <c r="B309" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" ht="20.35" customHeight="1">
+      <c r="A310" t="s" s="5">
+        <v>327</v>
+      </c>
+      <c r="B310" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" ht="20.35" customHeight="1">
+      <c r="A311" t="s" s="5">
+        <v>328</v>
+      </c>
+      <c r="B311" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" ht="32.35" customHeight="1">
+      <c r="A312" t="s" s="5">
+        <v>329</v>
+      </c>
+      <c r="B312" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" ht="32.35" customHeight="1">
+      <c r="A313" t="s" s="5">
+        <v>330</v>
+      </c>
+      <c r="B313" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" ht="56.35" customHeight="1">
+      <c r="A314" t="s" s="5">
+        <v>331</v>
+      </c>
+      <c r="B314" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" ht="44.35" customHeight="1">
+      <c r="A315" t="s" s="5">
+        <v>332</v>
+      </c>
+      <c r="B315" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" ht="20.35" customHeight="1">
+      <c r="A316" t="s" s="5">
+        <v>333</v>
+      </c>
+      <c r="B316" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="317" ht="32.35" customHeight="1">
+      <c r="A317" t="s" s="5">
+        <v>334</v>
+      </c>
+      <c r="B317" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" ht="20.35" customHeight="1">
+      <c r="A318" t="s" s="5">
+        <v>335</v>
+      </c>
+      <c r="B318" t="s" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="319" ht="32.35" customHeight="1">
+      <c r="A319" t="s" s="5">
+        <v>336</v>
+      </c>
+      <c r="B319" t="s" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="320" ht="32.35" customHeight="1">
+      <c r="A320" t="s" s="5">
+        <v>337</v>
+      </c>
+      <c r="B320" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" ht="20.35" customHeight="1">
+      <c r="A321" t="s" s="5">
+        <v>338</v>
+      </c>
+      <c r="B321" t="s" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="322" ht="32.35" customHeight="1">
+      <c r="A322" t="s" s="5">
+        <v>339</v>
+      </c>
+      <c r="B322" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" ht="32.35" customHeight="1">
+      <c r="A323" t="s" s="5">
+        <v>340</v>
+      </c>
+      <c r="B323" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" ht="32.35" customHeight="1">
+      <c r="A324" t="s" s="5">
+        <v>341</v>
+      </c>
+      <c r="B324" t="s" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="325" ht="20.35" customHeight="1">
+      <c r="A325" t="s" s="5">
+        <v>342</v>
+      </c>
+      <c r="B325" t="s" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="326" ht="20.35" customHeight="1">
+      <c r="A326" t="s" s="5">
+        <v>343</v>
+      </c>
+      <c r="B326" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" ht="44.35" customHeight="1">
+      <c r="A327" t="s" s="5">
+        <v>344</v>
+      </c>
+      <c r="B327" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/include/names.xlsx
+++ b/include/names.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="371">
   <si>
     <t>Table 1</t>
   </si>
@@ -1047,6 +1047,84 @@
   </si>
   <si>
     <t>Coach Taylor from FRIDAY NIGHT LIGHTS</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>religious figure</t>
+  </si>
+  <si>
+    <t>Gilly</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Casper from CASPER THE FRIENDLY GHOST</t>
+  </si>
+  <si>
+    <t>Jimmy Buffett</t>
+  </si>
+  <si>
+    <t>Cleatus the Robot from FOX NFL SUNDAY</t>
+  </si>
+  <si>
+    <t>Little Critter from LITTLE CRITTER</t>
+  </si>
+  <si>
+    <t>a Titan from ATTACK ON TITAN</t>
+  </si>
+  <si>
+    <t>Opera Man</t>
+  </si>
+  <si>
+    <t>Happy Gilmore from HAPPY GILMORE</t>
+  </si>
+  <si>
+    <t>Wayne Campbell and Garth Algar from WAYNE’S WORLD</t>
+  </si>
+  <si>
+    <t>the Log Lady from TWIN PEAKS</t>
+  </si>
+  <si>
+    <t>Clippy</t>
+  </si>
+  <si>
+    <t>Smiley from Walmart</t>
+  </si>
+  <si>
+    <t>Jughead Jones from ARCHIE COMICS</t>
+  </si>
+  <si>
+    <t>WATCHMEN</t>
+  </si>
+  <si>
+    <t>Robert Stack from UNSOLVED MYSTERIES</t>
+  </si>
+  <si>
+    <t>Detective Lennie Briscoe from LAW &amp; ORDER</t>
+  </si>
+  <si>
+    <t>Wolverine</t>
+  </si>
+  <si>
+    <t>Gandalf from LORD OF THE RINGS</t>
+  </si>
+  <si>
+    <t>Mr. Met</t>
+  </si>
+  <si>
+    <t>Earthworm Jim</t>
+  </si>
+  <si>
+    <t>Mewtwo from POKEMON</t>
+  </si>
+  <si>
+    <t>Pee Wee Herman</t>
+  </si>
+  <si>
+    <t>the Mighty Mighty Bosstones</t>
   </si>
 </sst>
 </file>
@@ -2279,7 +2357,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B327"/>
+  <dimension ref="A2:B352"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -4906,6 +4984,206 @@
         <v>6</v>
       </c>
     </row>
+    <row r="328" ht="20.35" customHeight="1">
+      <c r="A328" t="s" s="5">
+        <v>345</v>
+      </c>
+      <c r="B328" t="s" s="5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="329" ht="20.35" customHeight="1">
+      <c r="A329" t="s" s="5">
+        <v>347</v>
+      </c>
+      <c r="B329" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" ht="20.35" customHeight="1">
+      <c r="A330" t="s" s="5">
+        <v>348</v>
+      </c>
+      <c r="B330" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" ht="44.35" customHeight="1">
+      <c r="A331" t="s" s="5">
+        <v>349</v>
+      </c>
+      <c r="B331" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" ht="20.35" customHeight="1">
+      <c r="A332" t="s" s="5">
+        <v>350</v>
+      </c>
+      <c r="B332" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333" ht="44.35" customHeight="1">
+      <c r="A333" t="s" s="5">
+        <v>351</v>
+      </c>
+      <c r="B333" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" ht="32.35" customHeight="1">
+      <c r="A334" t="s" s="5">
+        <v>352</v>
+      </c>
+      <c r="B334" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" ht="32.35" customHeight="1">
+      <c r="A335" t="s" s="5">
+        <v>353</v>
+      </c>
+      <c r="B335" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" ht="20.35" customHeight="1">
+      <c r="A336" t="s" s="5">
+        <v>354</v>
+      </c>
+      <c r="B336" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" ht="32.35" customHeight="1">
+      <c r="A337" t="s" s="5">
+        <v>355</v>
+      </c>
+      <c r="B337" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" ht="56.35" customHeight="1">
+      <c r="A338" t="s" s="5">
+        <v>356</v>
+      </c>
+      <c r="B338" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" ht="32.35" customHeight="1">
+      <c r="A339" t="s" s="5">
+        <v>357</v>
+      </c>
+      <c r="B339" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" ht="20.35" customHeight="1">
+      <c r="A340" t="s" s="5">
+        <v>358</v>
+      </c>
+      <c r="B340" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" ht="32.35" customHeight="1">
+      <c r="A341" t="s" s="5">
+        <v>359</v>
+      </c>
+      <c r="B341" t="s" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="342" ht="44.35" customHeight="1">
+      <c r="A342" t="s" s="5">
+        <v>360</v>
+      </c>
+      <c r="B342" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343" ht="20.35" customHeight="1">
+      <c r="A343" t="s" s="5">
+        <v>361</v>
+      </c>
+      <c r="B343" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" ht="44.35" customHeight="1">
+      <c r="A344" t="s" s="5">
+        <v>362</v>
+      </c>
+      <c r="B344" t="s" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="345" ht="44.35" customHeight="1">
+      <c r="A345" t="s" s="5">
+        <v>363</v>
+      </c>
+      <c r="B345" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" ht="20.35" customHeight="1">
+      <c r="A346" t="s" s="5">
+        <v>364</v>
+      </c>
+      <c r="B346" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" ht="32.35" customHeight="1">
+      <c r="A347" t="s" s="5">
+        <v>365</v>
+      </c>
+      <c r="B347" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" ht="20.35" customHeight="1">
+      <c r="A348" t="s" s="5">
+        <v>366</v>
+      </c>
+      <c r="B348" t="s" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="349" ht="20.35" customHeight="1">
+      <c r="A349" t="s" s="5">
+        <v>367</v>
+      </c>
+      <c r="B349" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" ht="32.35" customHeight="1">
+      <c r="A350" t="s" s="5">
+        <v>368</v>
+      </c>
+      <c r="B350" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" ht="20.35" customHeight="1">
+      <c r="A351" t="s" s="5">
+        <v>369</v>
+      </c>
+      <c r="B351" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" ht="32.35" customHeight="1">
+      <c r="A352" t="s" s="5">
+        <v>370</v>
+      </c>
+      <c r="B352" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/include/names.xlsx
+++ b/include/names.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="397">
   <si>
     <t>Table 1</t>
   </si>
@@ -1125,6 +1125,84 @@
   </si>
   <si>
     <t>the Mighty Mighty Bosstones</t>
+  </si>
+  <si>
+    <t>the Love Guru from THE LOVE GURU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini-Me from AUSTIN POWERS: THE SPY WHO SHAGGED ME </t>
+  </si>
+  <si>
+    <t>Mr. T</t>
+  </si>
+  <si>
+    <t>Rocky from ROCKY</t>
+  </si>
+  <si>
+    <t>the Presidents of the United States of America (band)</t>
+  </si>
+  <si>
+    <t>the Presidents of the United States of America (profession)</t>
+  </si>
+  <si>
+    <t>King Kong from KING KONG (2005)</t>
+  </si>
+  <si>
+    <t>Bébé's Kids from BÉBÉ’S KIDS</t>
+  </si>
+  <si>
+    <t>Bobby Generic from BOBBY’S WORLD</t>
+  </si>
+  <si>
+    <t>Edwina "Eddie" Franklin from EDDIE</t>
+  </si>
+  <si>
+    <t>Jacqueline Kennedy Onassis</t>
+  </si>
+  <si>
+    <t>Mary Todd Lincoln</t>
+  </si>
+  <si>
+    <t>Jared from Subway</t>
+  </si>
+  <si>
+    <t>Heathcliff from HEATHCLIFF</t>
+  </si>
+  <si>
+    <t>Max from A GOOFY MOVIE</t>
+  </si>
+  <si>
+    <t>3 NINJAS</t>
+  </si>
+  <si>
+    <t>Boutros Boutros-Ghali</t>
+  </si>
+  <si>
+    <t>the Wild West C.O.W.-Boys of Moo Mesa from THE WILD WEST C.O.W.-BOYS OF MOO MESA</t>
+  </si>
+  <si>
+    <t>Sour Patch Kids</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>Woody from TOY STORY</t>
+  </si>
+  <si>
+    <t>Woody Guthrie</t>
+  </si>
+  <si>
+    <t>Godzilla</t>
+  </si>
+  <si>
+    <t>Lizzie McGuire (live-action) from LIZZIE MCGUIRE</t>
+  </si>
+  <si>
+    <t>Lizzie McGuire (animated) from LIZZIE MCGUIRE</t>
+  </si>
+  <si>
+    <t>Marvin the Martian from LOONEY TUNES</t>
   </si>
 </sst>
 </file>
@@ -2357,7 +2435,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B352"/>
+  <dimension ref="A2:B377"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -5184,6 +5262,206 @@
         <v>9</v>
       </c>
     </row>
+    <row r="353" ht="32.35" customHeight="1">
+      <c r="A353" t="s" s="5">
+        <v>371</v>
+      </c>
+      <c r="B353" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" ht="56.35" customHeight="1">
+      <c r="A354" t="s" s="5">
+        <v>372</v>
+      </c>
+      <c r="B354" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" ht="20.35" customHeight="1">
+      <c r="A355" t="s" s="5">
+        <v>373</v>
+      </c>
+      <c r="B355" t="s" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="356" ht="20.35" customHeight="1">
+      <c r="A356" t="s" s="5">
+        <v>374</v>
+      </c>
+      <c r="B356" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357" ht="44.35" customHeight="1">
+      <c r="A357" t="s" s="5">
+        <v>375</v>
+      </c>
+      <c r="B357" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" ht="56.35" customHeight="1">
+      <c r="A358" t="s" s="5">
+        <v>376</v>
+      </c>
+      <c r="B358" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" ht="32.35" customHeight="1">
+      <c r="A359" t="s" s="5">
+        <v>377</v>
+      </c>
+      <c r="B359" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360" ht="32.35" customHeight="1">
+      <c r="A360" t="s" s="5">
+        <v>378</v>
+      </c>
+      <c r="B360" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="361" ht="32.35" customHeight="1">
+      <c r="A361" t="s" s="5">
+        <v>379</v>
+      </c>
+      <c r="B361" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362" ht="44.35" customHeight="1">
+      <c r="A362" t="s" s="5">
+        <v>380</v>
+      </c>
+      <c r="B362" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363" ht="32.35" customHeight="1">
+      <c r="A363" t="s" s="5">
+        <v>381</v>
+      </c>
+      <c r="B363" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="364" ht="20.35" customHeight="1">
+      <c r="A364" t="s" s="5">
+        <v>382</v>
+      </c>
+      <c r="B364" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="365" ht="20.35" customHeight="1">
+      <c r="A365" t="s" s="5">
+        <v>383</v>
+      </c>
+      <c r="B365" t="s" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="366" ht="32.35" customHeight="1">
+      <c r="A366" t="s" s="5">
+        <v>384</v>
+      </c>
+      <c r="B366" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" ht="32.35" customHeight="1">
+      <c r="A367" t="s" s="5">
+        <v>385</v>
+      </c>
+      <c r="B367" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="368" ht="20.35" customHeight="1">
+      <c r="A368" t="s" s="5">
+        <v>386</v>
+      </c>
+      <c r="B368" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="369" ht="32.35" customHeight="1">
+      <c r="A369" t="s" s="5">
+        <v>387</v>
+      </c>
+      <c r="B369" t="s" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="370" ht="80.35" customHeight="1">
+      <c r="A370" t="s" s="5">
+        <v>388</v>
+      </c>
+      <c r="B370" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" ht="20.35" customHeight="1">
+      <c r="A371" t="s" s="5">
+        <v>389</v>
+      </c>
+      <c r="B371" t="s" s="5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="372" ht="32.35" customHeight="1">
+      <c r="A372" t="s" s="5">
+        <v>391</v>
+      </c>
+      <c r="B372" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="373" ht="20.35" customHeight="1">
+      <c r="A373" t="s" s="5">
+        <v>392</v>
+      </c>
+      <c r="B373" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="374" ht="20.35" customHeight="1">
+      <c r="A374" t="s" s="5">
+        <v>393</v>
+      </c>
+      <c r="B374" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375" ht="44.35" customHeight="1">
+      <c r="A375" t="s" s="5">
+        <v>394</v>
+      </c>
+      <c r="B375" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376" ht="44.35" customHeight="1">
+      <c r="A376" t="s" s="5">
+        <v>395</v>
+      </c>
+      <c r="B376" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="377" ht="44.35" customHeight="1">
+      <c r="A377" t="s" s="5">
+        <v>396</v>
+      </c>
+      <c r="B377" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/include/names.xlsx
+++ b/include/names.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="422">
   <si>
     <t>Table 1</t>
   </si>
@@ -1203,6 +1203,81 @@
   </si>
   <si>
     <t>Marvin the Martian from LOONEY TUNES</t>
+  </si>
+  <si>
+    <t>Hank Hill from KING OF THE HILL</t>
+  </si>
+  <si>
+    <t>Alan Thicke</t>
+  </si>
+  <si>
+    <t>Bobby Hill from KING OF THE HILL</t>
+  </si>
+  <si>
+    <t>Adolf Hitler</t>
+  </si>
+  <si>
+    <t>Pol Pot</t>
+  </si>
+  <si>
+    <t>John Wayne Gacy</t>
+  </si>
+  <si>
+    <t>Rosa Parks</t>
+  </si>
+  <si>
+    <t>Chairman Mao</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Caroline from CAROLINE IN THE CITY</t>
+  </si>
+  <si>
+    <t>the cast of MAD ABOUT YOU</t>
+  </si>
+  <si>
+    <t>the Taco Bell Chihuahua</t>
+  </si>
+  <si>
+    <t>Skeletor from HE-MAN AND THE MASTERS OF THE UNIVERSE</t>
+  </si>
+  <si>
+    <t>Voltron from VOLTRON</t>
+  </si>
+  <si>
+    <t>Bart Simpson from THE SIMPSONS</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Borat</t>
+  </si>
+  <si>
+    <t>👨🏻</t>
+  </si>
+  <si>
+    <t>👶</t>
+  </si>
+  <si>
+    <t>🙅🏼</t>
+  </si>
+  <si>
+    <t>👯</t>
+  </si>
+  <si>
+    <t>the Gingerbread Man from SHREK</t>
+  </si>
+  <si>
+    <t>Donkey from SHREK</t>
+  </si>
+  <si>
+    <t>Archbishop Desmond Tutu</t>
+  </si>
+  <si>
+    <t>Migos</t>
   </si>
 </sst>
 </file>
@@ -2435,7 +2510,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B377"/>
+  <dimension ref="A2:B402"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -5462,6 +5537,206 @@
         <v>6</v>
       </c>
     </row>
+    <row r="378" ht="32.35" customHeight="1">
+      <c r="A378" t="s" s="5">
+        <v>397</v>
+      </c>
+      <c r="B378" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" ht="20.35" customHeight="1">
+      <c r="A379" t="s" s="5">
+        <v>398</v>
+      </c>
+      <c r="B379" t="s" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="380" ht="32.35" customHeight="1">
+      <c r="A380" t="s" s="5">
+        <v>399</v>
+      </c>
+      <c r="B380" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" ht="20.35" customHeight="1">
+      <c r="A381" t="s" s="5">
+        <v>400</v>
+      </c>
+      <c r="B381" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" ht="20.35" customHeight="1">
+      <c r="A382" t="s" s="5">
+        <v>401</v>
+      </c>
+      <c r="B382" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="383" ht="20.35" customHeight="1">
+      <c r="A383" t="s" s="5">
+        <v>402</v>
+      </c>
+      <c r="B383" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="384" ht="20.35" customHeight="1">
+      <c r="A384" t="s" s="5">
+        <v>403</v>
+      </c>
+      <c r="B384" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="385" ht="20.35" customHeight="1">
+      <c r="A385" t="s" s="5">
+        <v>404</v>
+      </c>
+      <c r="B385" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" ht="20.35" customHeight="1">
+      <c r="A386" t="s" s="5">
+        <v>405</v>
+      </c>
+      <c r="B386" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" ht="44.35" customHeight="1">
+      <c r="A387" t="s" s="5">
+        <v>406</v>
+      </c>
+      <c r="B387" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="388" ht="32.35" customHeight="1">
+      <c r="A388" t="s" s="5">
+        <v>407</v>
+      </c>
+      <c r="B388" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" ht="32.35" customHeight="1">
+      <c r="A389" t="s" s="5">
+        <v>408</v>
+      </c>
+      <c r="B389" t="s" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="390" ht="56.35" customHeight="1">
+      <c r="A390" t="s" s="5">
+        <v>409</v>
+      </c>
+      <c r="B390" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391" ht="32.35" customHeight="1">
+      <c r="A391" t="s" s="5">
+        <v>410</v>
+      </c>
+      <c r="B391" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392" ht="32.35" customHeight="1">
+      <c r="A392" t="s" s="5">
+        <v>411</v>
+      </c>
+      <c r="B392" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="393" ht="20.35" customHeight="1">
+      <c r="A393" t="s" s="5">
+        <v>412</v>
+      </c>
+      <c r="B393" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="394" ht="20.35" customHeight="1">
+      <c r="A394" t="s" s="5">
+        <v>413</v>
+      </c>
+      <c r="B394" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="395" ht="25.35" customHeight="1">
+      <c r="A395" t="s" s="5">
+        <v>414</v>
+      </c>
+      <c r="B395" t="s" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="396" ht="25.35" customHeight="1">
+      <c r="A396" t="s" s="5">
+        <v>415</v>
+      </c>
+      <c r="B396" t="s" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="397" ht="25.35" customHeight="1">
+      <c r="A397" t="s" s="5">
+        <v>416</v>
+      </c>
+      <c r="B397" t="s" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="398" ht="25.35" customHeight="1">
+      <c r="A398" t="s" s="5">
+        <v>417</v>
+      </c>
+      <c r="B398" t="s" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="399" ht="32.35" customHeight="1">
+      <c r="A399" t="s" s="5">
+        <v>418</v>
+      </c>
+      <c r="B399" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" ht="32.35" customHeight="1">
+      <c r="A400" t="s" s="5">
+        <v>419</v>
+      </c>
+      <c r="B400" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="401" ht="32.35" customHeight="1">
+      <c r="A401" t="s" s="5">
+        <v>420</v>
+      </c>
+      <c r="B401" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="402" ht="20.35" customHeight="1">
+      <c r="A402" t="s" s="5">
+        <v>421</v>
+      </c>
+      <c r="B402" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/include/names.xlsx
+++ b/include/names.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="449">
   <si>
     <t>Table 1</t>
   </si>
@@ -1278,6 +1278,87 @@
   </si>
   <si>
     <t>Migos</t>
+  </si>
+  <si>
+    <t>Uncle Buck from UNCLE BUCK</t>
+  </si>
+  <si>
+    <t>the Nasonex Bee</t>
+  </si>
+  <si>
+    <t>Space Ghost</t>
+  </si>
+  <si>
+    <t>Parappa the Rapper</t>
+  </si>
+  <si>
+    <t>Daria from DARIA</t>
+  </si>
+  <si>
+    <t>a leprechaun</t>
+  </si>
+  <si>
+    <t>creature</t>
+  </si>
+  <si>
+    <t>Bigfoot</t>
+  </si>
+  <si>
+    <t>BonziBUDDY</t>
+  </si>
+  <si>
+    <t>the Snoods from SNOOD</t>
+  </si>
+  <si>
+    <t>Pikmin from PIKMIN</t>
+  </si>
+  <si>
+    <t>Buffalo Bill from SILENCE OF THE LAMBS</t>
+  </si>
+  <si>
+    <t>Larry David</t>
+  </si>
+  <si>
+    <t>Andrew Dice Clay</t>
+  </si>
+  <si>
+    <t>the swing dancers from the Gap commercials</t>
+  </si>
+  <si>
+    <t>Siri</t>
+  </si>
+  <si>
+    <t>voice</t>
+  </si>
+  <si>
+    <t>Ariel from THE LITTLE MERMAID</t>
+  </si>
+  <si>
+    <t>Archduke Franz Ferdinand of Austria</t>
+  </si>
+  <si>
+    <t>Bo Jackson</t>
+  </si>
+  <si>
+    <t>Macho Man Randy Savage</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Bull Shannon from NIGHT COURT</t>
+  </si>
+  <si>
+    <t>Carl Winslow from FAMILY MATTERS</t>
+  </si>
+  <si>
+    <t>Urkel</t>
+  </si>
+  <si>
+    <t>Stefan Urquelle from FAMILY MATTERS</t>
+  </si>
+  <si>
+    <t>Cousin Larry from FAMILY MATTERS</t>
   </si>
 </sst>
 </file>
@@ -2510,7 +2591,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B402"/>
+  <dimension ref="A2:B427"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -5737,6 +5818,206 @@
         <v>9</v>
       </c>
     </row>
+    <row r="403" ht="32.35" customHeight="1">
+      <c r="A403" t="s" s="5">
+        <v>422</v>
+      </c>
+      <c r="B403" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404" ht="20.35" customHeight="1">
+      <c r="A404" t="s" s="5">
+        <v>423</v>
+      </c>
+      <c r="B404" t="s" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="405" ht="20.35" customHeight="1">
+      <c r="A405" t="s" s="5">
+        <v>424</v>
+      </c>
+      <c r="B405" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="406" ht="32.35" customHeight="1">
+      <c r="A406" t="s" s="5">
+        <v>425</v>
+      </c>
+      <c r="B406" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" ht="20.35" customHeight="1">
+      <c r="A407" t="s" s="5">
+        <v>426</v>
+      </c>
+      <c r="B407" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="408" ht="20.35" customHeight="1">
+      <c r="A408" t="s" s="5">
+        <v>427</v>
+      </c>
+      <c r="B408" t="s" s="5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="409" ht="20.35" customHeight="1">
+      <c r="A409" t="s" s="5">
+        <v>429</v>
+      </c>
+      <c r="B409" t="s" s="5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="410" ht="20.35" customHeight="1">
+      <c r="A410" t="s" s="5">
+        <v>430</v>
+      </c>
+      <c r="B410" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="411" ht="32.35" customHeight="1">
+      <c r="A411" t="s" s="5">
+        <v>431</v>
+      </c>
+      <c r="B411" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="412" ht="32.35" customHeight="1">
+      <c r="A412" t="s" s="5">
+        <v>432</v>
+      </c>
+      <c r="B412" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413" ht="44.35" customHeight="1">
+      <c r="A413" t="s" s="5">
+        <v>433</v>
+      </c>
+      <c r="B413" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="414" ht="20.35" customHeight="1">
+      <c r="A414" t="s" s="5">
+        <v>434</v>
+      </c>
+      <c r="B414" t="s" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="415" ht="20.35" customHeight="1">
+      <c r="A415" t="s" s="5">
+        <v>435</v>
+      </c>
+      <c r="B415" t="s" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="416" ht="44.35" customHeight="1">
+      <c r="A416" t="s" s="5">
+        <v>436</v>
+      </c>
+      <c r="B416" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" ht="20.35" customHeight="1">
+      <c r="A417" t="s" s="5">
+        <v>437</v>
+      </c>
+      <c r="B417" t="s" s="5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="418" ht="32.35" customHeight="1">
+      <c r="A418" t="s" s="5">
+        <v>439</v>
+      </c>
+      <c r="B418" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="419" ht="32.35" customHeight="1">
+      <c r="A419" t="s" s="5">
+        <v>440</v>
+      </c>
+      <c r="B419" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="420" ht="20.35" customHeight="1">
+      <c r="A420" t="s" s="5">
+        <v>441</v>
+      </c>
+      <c r="B420" t="s" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="421" ht="32.35" customHeight="1">
+      <c r="A421" t="s" s="5">
+        <v>442</v>
+      </c>
+      <c r="B421" t="s" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="422" ht="20.35" customHeight="1">
+      <c r="A422" t="s" s="5">
+        <v>443</v>
+      </c>
+      <c r="B422" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="423" ht="32.35" customHeight="1">
+      <c r="A423" t="s" s="5">
+        <v>444</v>
+      </c>
+      <c r="B423" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="424" ht="32.35" customHeight="1">
+      <c r="A424" t="s" s="5">
+        <v>445</v>
+      </c>
+      <c r="B424" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="425" ht="20.35" customHeight="1">
+      <c r="A425" t="s" s="5">
+        <v>446</v>
+      </c>
+      <c r="B425" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="426" ht="44.35" customHeight="1">
+      <c r="A426" t="s" s="5">
+        <v>447</v>
+      </c>
+      <c r="B426" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="427" ht="32.35" customHeight="1">
+      <c r="A427" t="s" s="5">
+        <v>448</v>
+      </c>
+      <c r="B427" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/include/names.xlsx
+++ b/include/names.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="476">
   <si>
     <t>Table 1</t>
   </si>
@@ -1359,6 +1359,87 @@
   </si>
   <si>
     <t>Cousin Larry from FAMILY MATTERS</t>
+  </si>
+  <si>
+    <t>Timecop</t>
+  </si>
+  <si>
+    <t>Simon Phoenix from DEMOLITION MAN</t>
+  </si>
+  <si>
+    <t>the cast of QUEER EYE FOR THE STRAIGHT GUY</t>
+  </si>
+  <si>
+    <t>the judges on CHOPPED JUNIOR</t>
+  </si>
+  <si>
+    <t>Julia Child</t>
+  </si>
+  <si>
+    <t>chef</t>
+  </si>
+  <si>
+    <t>Elmo’s Dad</t>
+  </si>
+  <si>
+    <t>the Magic Brooms from FANTASIA</t>
+  </si>
+  <si>
+    <t>Astro Boy from ASTRO BOY</t>
+  </si>
+  <si>
+    <t>Nic Cage</t>
+  </si>
+  <si>
+    <t>a Troll doll</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>the Princess Di Beanie Baby</t>
+  </si>
+  <si>
+    <t>a Tamagotchi</t>
+  </si>
+  <si>
+    <t>Tickle Me Elmo</t>
+  </si>
+  <si>
+    <t>Rorschach from WATCHMEN</t>
+  </si>
+  <si>
+    <t>Men on Film from IN LIVING COLOR</t>
+  </si>
+  <si>
+    <t>Romeo and Juliet from ROMEO + JULIET</t>
+  </si>
+  <si>
+    <t>Don Quixote from DON QUIXOTE</t>
+  </si>
+  <si>
+    <t>Beetlejuice from BEETLEJUICE</t>
+  </si>
+  <si>
+    <t>Oasis</t>
+  </si>
+  <si>
+    <t>Aretha Franklin</t>
+  </si>
+  <si>
+    <t>the General from the General Car Insurance commercials</t>
+  </si>
+  <si>
+    <t>Kazaam</t>
+  </si>
+  <si>
+    <t>Sinbad</t>
+  </si>
+  <si>
+    <t>Mr. Cooper from HANGIN’ WITH MR. COOPER</t>
+  </si>
+  <si>
+    <t>Evil Kermit</t>
   </si>
 </sst>
 </file>
@@ -2591,7 +2672,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B427"/>
+  <dimension ref="A2:B452"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -6018,6 +6099,206 @@
         <v>6</v>
       </c>
     </row>
+    <row r="428" ht="20.35" customHeight="1">
+      <c r="A428" t="s" s="5">
+        <v>449</v>
+      </c>
+      <c r="B428" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="429" ht="44.35" customHeight="1">
+      <c r="A429" t="s" s="5">
+        <v>450</v>
+      </c>
+      <c r="B429" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="430" ht="44.35" customHeight="1">
+      <c r="A430" t="s" s="5">
+        <v>451</v>
+      </c>
+      <c r="B430" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="431" ht="32.35" customHeight="1">
+      <c r="A431" t="s" s="5">
+        <v>452</v>
+      </c>
+      <c r="B431" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="432" ht="20.35" customHeight="1">
+      <c r="A432" t="s" s="5">
+        <v>453</v>
+      </c>
+      <c r="B432" t="s" s="5">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="433" ht="20.35" customHeight="1">
+      <c r="A433" t="s" s="5">
+        <v>455</v>
+      </c>
+      <c r="B433" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="434" ht="32.35" customHeight="1">
+      <c r="A434" t="s" s="5">
+        <v>456</v>
+      </c>
+      <c r="B434" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="435" ht="32.35" customHeight="1">
+      <c r="A435" t="s" s="5">
+        <v>457</v>
+      </c>
+      <c r="B435" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="436" ht="20.35" customHeight="1">
+      <c r="A436" t="s" s="5">
+        <v>458</v>
+      </c>
+      <c r="B436" t="s" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="437" ht="20.35" customHeight="1">
+      <c r="A437" t="s" s="5">
+        <v>459</v>
+      </c>
+      <c r="B437" t="s" s="5">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="438" ht="32.35" customHeight="1">
+      <c r="A438" t="s" s="5">
+        <v>461</v>
+      </c>
+      <c r="B438" t="s" s="5">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="439" ht="20.35" customHeight="1">
+      <c r="A439" t="s" s="5">
+        <v>462</v>
+      </c>
+      <c r="B439" t="s" s="5">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="440" ht="20.35" customHeight="1">
+      <c r="A440" t="s" s="5">
+        <v>463</v>
+      </c>
+      <c r="B440" t="s" s="5">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="441" ht="32.35" customHeight="1">
+      <c r="A441" t="s" s="5">
+        <v>464</v>
+      </c>
+      <c r="B441" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="442" ht="32.35" customHeight="1">
+      <c r="A442" t="s" s="5">
+        <v>465</v>
+      </c>
+      <c r="B442" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="443" ht="44.35" customHeight="1">
+      <c r="A443" t="s" s="5">
+        <v>466</v>
+      </c>
+      <c r="B443" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="444" ht="32.35" customHeight="1">
+      <c r="A444" t="s" s="5">
+        <v>467</v>
+      </c>
+      <c r="B444" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445" ht="32.35" customHeight="1">
+      <c r="A445" t="s" s="5">
+        <v>468</v>
+      </c>
+      <c r="B445" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="446" ht="20.35" customHeight="1">
+      <c r="A446" t="s" s="5">
+        <v>469</v>
+      </c>
+      <c r="B446" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="447" ht="20.35" customHeight="1">
+      <c r="A447" t="s" s="5">
+        <v>470</v>
+      </c>
+      <c r="B447" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="448" ht="56.35" customHeight="1">
+      <c r="A448" t="s" s="5">
+        <v>471</v>
+      </c>
+      <c r="B448" t="s" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="449" ht="20.35" customHeight="1">
+      <c r="A449" t="s" s="5">
+        <v>472</v>
+      </c>
+      <c r="B449" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450" ht="20.35" customHeight="1">
+      <c r="A450" t="s" s="5">
+        <v>473</v>
+      </c>
+      <c r="B450" t="s" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="451" ht="44.35" customHeight="1">
+      <c r="A451" t="s" s="5">
+        <v>474</v>
+      </c>
+      <c r="B451" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="452" ht="20.35" customHeight="1">
+      <c r="A452" t="s" s="5">
+        <v>475</v>
+      </c>
+      <c r="B452" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/include/names.xlsx
+++ b/include/names.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="506">
   <si>
     <t>Table 1</t>
   </si>
@@ -1440,6 +1440,96 @@
   </si>
   <si>
     <t>Evil Kermit</t>
+  </si>
+  <si>
+    <t>FBI Director James Comey</t>
+  </si>
+  <si>
+    <t>Ron Paul</t>
+  </si>
+  <si>
+    <t>Werner Herzog</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>Slavoj Zizek</t>
+  </si>
+  <si>
+    <t>philosopher</t>
+  </si>
+  <si>
+    <t>Paul Bunyan</t>
+  </si>
+  <si>
+    <t>folk tale</t>
+  </si>
+  <si>
+    <t>Punxsutawney Phil</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>Crash Test Dummies (band)</t>
+  </si>
+  <si>
+    <t>the Incredible Crash Test Dummies</t>
+  </si>
+  <si>
+    <t>Joan Rivers</t>
+  </si>
+  <si>
+    <t>the Bananas in Pyjamas from BANANAS IN PYJAMAS</t>
+  </si>
+  <si>
+    <t>Queen Elizabeth II</t>
+  </si>
+  <si>
+    <t>Václav Havel</t>
+  </si>
+  <si>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>Joy Division</t>
+  </si>
+  <si>
+    <t>Chandler Bing from FRIENDS</t>
+  </si>
+  <si>
+    <t>the original Broadway cast of RENT</t>
+  </si>
+  <si>
+    <t>Bret “the Hitman” Hart</t>
+  </si>
+  <si>
+    <t>Vince Lombardi</t>
+  </si>
+  <si>
+    <t>Martin Luther King Jr.</t>
+  </si>
+  <si>
+    <t>Michael Myers from HALLOWEEN</t>
+  </si>
+  <si>
+    <t>Simón Bolívar</t>
+  </si>
+  <si>
+    <t>Pelé</t>
+  </si>
+  <si>
+    <t>the New Kids on the Block</t>
+  </si>
+  <si>
+    <t>Copernicus</t>
+  </si>
+  <si>
+    <t>scientist</t>
+  </si>
+  <si>
+    <t>Pope John Paul II</t>
   </si>
 </sst>
 </file>
@@ -2672,7 +2762,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B452"/>
+  <dimension ref="A2:B477"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -6299,6 +6389,206 @@
         <v>6</v>
       </c>
     </row>
+    <row r="453" ht="32.35" customHeight="1">
+      <c r="A453" t="s" s="5">
+        <v>476</v>
+      </c>
+      <c r="B453" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="454" ht="20.35" customHeight="1">
+      <c r="A454" t="s" s="5">
+        <v>477</v>
+      </c>
+      <c r="B454" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" ht="20.35" customHeight="1">
+      <c r="A455" t="s" s="5">
+        <v>478</v>
+      </c>
+      <c r="B455" t="s" s="5">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="456" ht="20.35" customHeight="1">
+      <c r="A456" t="s" s="5">
+        <v>480</v>
+      </c>
+      <c r="B456" t="s" s="5">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="457" ht="20.35" customHeight="1">
+      <c r="A457" t="s" s="5">
+        <v>482</v>
+      </c>
+      <c r="B457" t="s" s="5">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="458" ht="20.35" customHeight="1">
+      <c r="A458" t="s" s="5">
+        <v>484</v>
+      </c>
+      <c r="B458" t="s" s="5">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="459" ht="32.35" customHeight="1">
+      <c r="A459" t="s" s="5">
+        <v>486</v>
+      </c>
+      <c r="B459" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="460" ht="32.35" customHeight="1">
+      <c r="A460" t="s" s="5">
+        <v>487</v>
+      </c>
+      <c r="B460" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="461" ht="20.35" customHeight="1">
+      <c r="A461" t="s" s="5">
+        <v>488</v>
+      </c>
+      <c r="B461" t="s" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="462" ht="56.35" customHeight="1">
+      <c r="A462" t="s" s="5">
+        <v>489</v>
+      </c>
+      <c r="B462" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="463" ht="20.35" customHeight="1">
+      <c r="A463" t="s" s="5">
+        <v>490</v>
+      </c>
+      <c r="B463" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="464" ht="20.35" customHeight="1">
+      <c r="A464" t="s" s="5">
+        <v>491</v>
+      </c>
+      <c r="B464" t="s" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="465" ht="20.35" customHeight="1">
+      <c r="A465" t="s" s="5">
+        <v>492</v>
+      </c>
+      <c r="B465" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" ht="20.35" customHeight="1">
+      <c r="A466" t="s" s="5">
+        <v>493</v>
+      </c>
+      <c r="B466" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="467" ht="32.35" customHeight="1">
+      <c r="A467" t="s" s="5">
+        <v>494</v>
+      </c>
+      <c r="B467" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="468" ht="44.35" customHeight="1">
+      <c r="A468" t="s" s="5">
+        <v>495</v>
+      </c>
+      <c r="B468" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="469" ht="32.35" customHeight="1">
+      <c r="A469" t="s" s="5">
+        <v>496</v>
+      </c>
+      <c r="B469" t="s" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="470" ht="20.35" customHeight="1">
+      <c r="A470" t="s" s="5">
+        <v>497</v>
+      </c>
+      <c r="B470" t="s" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="471" ht="32.35" customHeight="1">
+      <c r="A471" t="s" s="5">
+        <v>498</v>
+      </c>
+      <c r="B471" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="472" ht="32.35" customHeight="1">
+      <c r="A472" t="s" s="5">
+        <v>499</v>
+      </c>
+      <c r="B472" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="473" ht="20.35" customHeight="1">
+      <c r="A473" t="s" s="5">
+        <v>500</v>
+      </c>
+      <c r="B473" t="s" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="474" ht="20.35" customHeight="1">
+      <c r="A474" t="s" s="5">
+        <v>501</v>
+      </c>
+      <c r="B474" t="s" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="475" ht="32.35" customHeight="1">
+      <c r="A475" t="s" s="5">
+        <v>502</v>
+      </c>
+      <c r="B475" t="s" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="476" ht="20.35" customHeight="1">
+      <c r="A476" t="s" s="5">
+        <v>503</v>
+      </c>
+      <c r="B476" t="s" s="5">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="477" ht="20.35" customHeight="1">
+      <c r="A477" t="s" s="5">
+        <v>505</v>
+      </c>
+      <c r="B477" t="s" s="5">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
